--- a/templates/excel/charges_template.xlsx
+++ b/templates/excel/charges_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="9C25"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="CEE7"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>b25b294cb4deb69ea00a4c3cf3113904801b6015e5956bd019a8570b1fe1d6040e944ef3cdee16d0a46503ca6e659a25f21cf9ceddc13f352a3c98138c15d6af</t>
+    <t>4ebadae4534ef2d502226be3dc12bdd1d2ff13d3b9a1ce9d134a58717d9fcb886e450b29fa53be1d43ec40838cdd35c1eab634cb32163d7b85c799eb0bc170b8</t>
   </si>
 </sst>
 </file>

--- a/templates/excel/charges_template.xlsx
+++ b/templates/excel/charges_template.xlsx
@@ -414,8 +414,8 @@
     <col min="1" max="1" width="10" customWidth="true" style="0"/>
     <col min="2" max="2" width="10" customWidth="true" style="0"/>
     <col min="3" max="3" width="14" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.38" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/templates/excel/charges_template.xlsx
+++ b/templates/excel/charges_template.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
